--- a/Figures-Tables-Manuscript/Supplemental/TS3_BOXPLOTSTATS-TRANSPORT.xlsx
+++ b/Figures-Tables-Manuscript/Supplemental/TS3_BOXPLOTSTATS-TRANSPORT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jocelynreahl/Documents/BergmannLab_2018-2020/Reahl_2020/Figures-Tables-Manuscript/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jocelynreahl/Documents/BergmannLab_2018-2020/Reahl_2020/Figures-Tables-Manuscript/Supplemental/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6B6243-8394-F345-8D9A-6E7462AD4A6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C096120-E42C-6A45-8CA7-0A6C5420356A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="440" windowWidth="10140" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="440" windowWidth="17220" windowHeight="14180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
     <t>Transport Mode</t>
   </si>
   <si>
-    <t>Table S[BOXPLOTSTATS-TRANSPORT]. First quartiles (q25), medians (q50), third quartiles (q75), lower adjacent values (h1), and upper adjacent values (h2) of modern aeolian, fluvial, and glacial samples along PC1, PC2, and PC3 in the all-textures and mechanical PCA ordinations.</t>
+    <t>Table S3. First quartiles (q25), medians (q50), third quartiles (q75), lower adjacent values (h1), and upper adjacent values (h2) of modern aeolian, fluvial, and glacial samples along PC1, PC2, and PC3 in the all-textures and mechanical PCA ordinations.</t>
   </si>
 </sst>
 </file>
@@ -88,7 +88,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -187,50 +187,50 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -570,62 +570,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection sqref="A1:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="9" width="6.1640625" customWidth="1"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="8" width="6.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B1" s="20" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-    </row>
-    <row r="5" spans="2:9" ht="8" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+    </row>
+    <row r="5" spans="1:8" ht="8" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -633,458 +634,457 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="2:9" s="1" customFormat="1" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="B6" s="4" t="s">
+        <v>0</v>
+      </c>
       <c r="C6" s="4" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="5" t="s">
+    <row r="7" spans="1:8" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
         <v>6</v>
       </c>
+      <c r="B7" s="16" t="s">
+        <v>11</v>
+      </c>
       <c r="C7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="6">
+        <v>-2.6074328255770709</v>
+      </c>
+      <c r="E7" s="6">
+        <v>-0.35803884624913829</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1.312218998990234</v>
+      </c>
+      <c r="G7" s="6">
+        <v>-3.1073990254294812</v>
+      </c>
+      <c r="H7" s="6">
+        <v>3.3673558541667772</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="8">
+        <v>-2.0034243150019999</v>
+      </c>
+      <c r="E8" s="8">
+        <v>-1.6081337797735089</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0.44088377261917988</v>
+      </c>
+      <c r="G8" s="8">
+        <v>-2.8860871297181721</v>
+      </c>
+      <c r="H8" s="8">
+        <v>2.0606222008694859</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0.1641589445953105</v>
+      </c>
+      <c r="E9" s="10">
+        <v>1.217717344701905</v>
+      </c>
+      <c r="F9" s="10">
+        <v>1.902466225160006</v>
+      </c>
+      <c r="G9" s="10">
+        <v>-2.211360198655218</v>
+      </c>
+      <c r="H9" s="10">
+        <v>3.6050411966872251</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="17"/>
+      <c r="B10" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="12">
+        <v>2.7639775282256571</v>
+      </c>
+      <c r="E10" s="12">
+        <v>2.9870332326482671</v>
+      </c>
+      <c r="F10" s="12">
+        <v>3.6942220883355001</v>
+      </c>
+      <c r="G10" s="12">
+        <v>2.1075183918862348</v>
+      </c>
+      <c r="H10" s="12">
+        <v>4.0333811776960866</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="8">
+        <v>-1.1524202138657189</v>
+      </c>
+      <c r="E11" s="8">
+        <v>-0.6832550155677406</v>
+      </c>
+      <c r="F11" s="8">
+        <v>-0.20380035224041959</v>
+      </c>
+      <c r="G11" s="8">
+        <v>-2.3075580985913788</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0.5738884964150065</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="17"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="10">
+        <v>-0.84391168734121424</v>
+      </c>
+      <c r="E12" s="10">
+        <v>-0.18549928791766551</v>
+      </c>
+      <c r="F12" s="10">
+        <v>0.66487458854365322</v>
+      </c>
+      <c r="G12" s="10">
+        <v>-2.1967447956071191</v>
+      </c>
+      <c r="H12" s="10">
+        <v>1.4909774205975099</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="8">
+        <v>-1.811244533674935</v>
+      </c>
+      <c r="E13" s="8">
+        <v>-0.62878652856260964</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1.0318831811655269</v>
+      </c>
+      <c r="G13" s="8">
+        <v>-3.222885345108506</v>
+      </c>
+      <c r="H13" s="8">
+        <v>2.8473577987443912</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="8">
+        <v>-0.93972114730714518</v>
+      </c>
+      <c r="E14" s="8">
+        <v>-0.35123386551972607</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0.29242046562513491</v>
+      </c>
+      <c r="G14" s="8">
+        <v>-2.6929188418739209</v>
+      </c>
+      <c r="H14" s="8">
+        <v>0.99219401015198483</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="10">
+        <v>-0.63759562726898067</v>
+      </c>
+      <c r="E15" s="10">
+        <v>0.19770219568517181</v>
+      </c>
+      <c r="F15" s="10">
+        <v>1.477568724516753</v>
+      </c>
+      <c r="G15" s="10">
+        <v>-1.8025330059329741</v>
+      </c>
+      <c r="H15" s="10">
+        <v>3.6505262817821929</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="C16" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="7">
-        <v>-2.6074328255770709</v>
-      </c>
-      <c r="F7" s="7">
-        <v>-0.35803884624913829</v>
-      </c>
-      <c r="G7" s="7">
-        <v>1.312218998990234</v>
-      </c>
-      <c r="H7" s="7">
-        <v>-3.1073990254294812</v>
-      </c>
-      <c r="I7" s="7">
-        <v>3.3673558541667772</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9" t="s">
+      <c r="D16" s="12">
+        <v>-1.7432324096054581</v>
+      </c>
+      <c r="E16" s="12">
+        <v>0.7073064999185128</v>
+      </c>
+      <c r="F16" s="12">
+        <v>2.585989925212568</v>
+      </c>
+      <c r="G16" s="12">
+        <v>-2.200313089809252</v>
+      </c>
+      <c r="H16" s="12">
+        <v>4.3420386712049597</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="10">
-        <v>-2.0034243150019999</v>
-      </c>
-      <c r="F8" s="10">
-        <v>-1.6081337797735089</v>
-      </c>
-      <c r="G8" s="10">
-        <v>0.44088377261917988</v>
-      </c>
-      <c r="H8" s="10">
-        <v>-2.8860871297181721</v>
-      </c>
-      <c r="I8" s="10">
-        <v>2.0606222008694859</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="8"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12" t="s">
+      <c r="D17" s="8">
+        <v>-2.0763699166792922</v>
+      </c>
+      <c r="E17" s="8">
+        <v>-1.473609668552371</v>
+      </c>
+      <c r="F17" s="8">
+        <v>-3.2240208395271433E-2</v>
+      </c>
+      <c r="G17" s="8">
+        <v>-2.9640990113285031</v>
+      </c>
+      <c r="H17" s="8">
+        <v>1.8006747153466769</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="17"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="13">
-        <v>0.1641589445953105</v>
-      </c>
-      <c r="F9" s="13">
-        <v>1.217717344701905</v>
-      </c>
-      <c r="G9" s="13">
-        <v>1.902466225160006</v>
-      </c>
-      <c r="H9" s="13">
-        <v>-2.211360198655218</v>
-      </c>
-      <c r="I9" s="13">
-        <v>3.6050411966872251</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="8"/>
-      <c r="C10" s="14" t="s">
+      <c r="D18" s="10">
+        <v>8.5747110228968915E-2</v>
+      </c>
+      <c r="E18" s="10">
+        <v>0.97283457442002075</v>
+      </c>
+      <c r="F18" s="10">
+        <v>1.6100976848454649</v>
+      </c>
+      <c r="G18" s="10">
+        <v>-1.434865707106556</v>
+      </c>
+      <c r="H18" s="10">
+        <v>3.5511952084813641</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="17"/>
+      <c r="B19" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="C19" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="16">
-        <v>2.7639775282256571</v>
-      </c>
-      <c r="F10" s="16">
-        <v>2.9870332326482671</v>
-      </c>
-      <c r="G10" s="16">
-        <v>3.6942220883355001</v>
-      </c>
-      <c r="H10" s="16">
-        <v>2.1075183918862348</v>
-      </c>
-      <c r="I10" s="16">
-        <v>4.0333811776960866</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9" t="s">
+      <c r="D19" s="12">
+        <v>1.107927086691928</v>
+      </c>
+      <c r="E19" s="12">
+        <v>2.2392935739630482</v>
+      </c>
+      <c r="F19" s="12">
+        <v>3.4489072056985499</v>
+      </c>
+      <c r="G19" s="12">
+        <v>-0.3014084652093737</v>
+      </c>
+      <c r="H19" s="12">
+        <v>4.2586379772284957</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="10">
-        <v>-1.1524202138657189</v>
-      </c>
-      <c r="F11" s="10">
-        <v>-0.6832550155677406</v>
-      </c>
-      <c r="G11" s="10">
-        <v>-0.20380035224041959</v>
-      </c>
-      <c r="H11" s="10">
-        <v>-2.3075580985913788</v>
-      </c>
-      <c r="I11" s="10">
-        <v>0.5738884964150065</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="8"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12" t="s">
+      <c r="D20" s="8">
+        <v>-0.57500160441415382</v>
+      </c>
+      <c r="E20" s="8">
+        <v>7.0856264947809278E-2</v>
+      </c>
+      <c r="F20" s="8">
+        <v>0.5839172787192819</v>
+      </c>
+      <c r="G20" s="8">
+        <v>-2.2961648931440068</v>
+      </c>
+      <c r="H20" s="8">
+        <v>1.9675964549464291</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="17"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="13">
-        <v>-0.84391168734121424</v>
-      </c>
-      <c r="F12" s="13">
-        <v>-0.18549928791766551</v>
-      </c>
-      <c r="G12" s="13">
-        <v>0.66487458854365322</v>
-      </c>
-      <c r="H12" s="13">
-        <v>-2.1967447956071191</v>
-      </c>
-      <c r="I12" s="13">
-        <v>1.4909774205975099</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="8"/>
-      <c r="C13" s="8" t="s">
+      <c r="D21" s="10">
+        <v>-1.513577631638958</v>
+      </c>
+      <c r="E21" s="10">
+        <v>-0.5793486788248895</v>
+      </c>
+      <c r="F21" s="10">
+        <v>0.29328548615483241</v>
+      </c>
+      <c r="G21" s="10">
+        <v>-3.8748722123222712</v>
+      </c>
+      <c r="H21" s="10">
+        <v>2.9289957424536199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="C22" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="10">
-        <v>-1.811244533674935</v>
-      </c>
-      <c r="F13" s="10">
-        <v>-0.62878652856260964</v>
-      </c>
-      <c r="G13" s="10">
-        <v>1.0318831811655269</v>
-      </c>
-      <c r="H13" s="10">
-        <v>-3.222885345108506</v>
-      </c>
-      <c r="I13" s="10">
-        <v>2.8473577987443912</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9" t="s">
+      <c r="D22" s="8">
+        <v>0.67830749542089697</v>
+      </c>
+      <c r="E22" s="8">
+        <v>1.416544355928528</v>
+      </c>
+      <c r="F22" s="8">
+        <v>2.336633695875677</v>
+      </c>
+      <c r="G22" s="8">
+        <v>-1.1493586420605291</v>
+      </c>
+      <c r="H22" s="8">
+        <v>3.3283992458839129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="10">
-        <v>-0.93972114730714518</v>
-      </c>
-      <c r="F14" s="10">
-        <v>-0.35123386551972607</v>
-      </c>
-      <c r="G14" s="10">
-        <v>0.29242046562513491</v>
-      </c>
-      <c r="H14" s="10">
-        <v>-2.6929188418739209</v>
-      </c>
-      <c r="I14" s="10">
-        <v>0.99219401015198483</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12" t="s">
+      <c r="D23" s="8">
+        <v>-1.380104506903618</v>
+      </c>
+      <c r="E23" s="8">
+        <v>-0.30325530584559113</v>
+      </c>
+      <c r="F23" s="8">
+        <v>9.8921050491331874E-2</v>
+      </c>
+      <c r="G23" s="8">
+        <v>-2.7073284933720609</v>
+      </c>
+      <c r="H23" s="8">
+        <v>0.94065057156341925</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="13">
-        <v>-0.63759562726898067</v>
-      </c>
-      <c r="F15" s="13">
-        <v>0.19770219568517181</v>
-      </c>
-      <c r="G15" s="13">
-        <v>1.477568724516753</v>
-      </c>
-      <c r="H15" s="13">
-        <v>-1.8025330059329741</v>
-      </c>
-      <c r="I15" s="13">
-        <v>3.6505262817821929</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="16">
-        <v>-1.7432324096054581</v>
-      </c>
-      <c r="F16" s="16">
-        <v>0.7073064999185128</v>
-      </c>
-      <c r="G16" s="16">
-        <v>2.585989925212568</v>
-      </c>
-      <c r="H16" s="16">
-        <v>-2.200313089809252</v>
-      </c>
-      <c r="I16" s="16">
-        <v>4.3420386712049597</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="10">
-        <v>-2.0763699166792922</v>
-      </c>
-      <c r="F17" s="10">
-        <v>-1.473609668552371</v>
-      </c>
-      <c r="G17" s="10">
-        <v>-3.2240208395271433E-2</v>
-      </c>
-      <c r="H17" s="10">
-        <v>-2.9640990113285031</v>
-      </c>
-      <c r="I17" s="10">
-        <v>1.8006747153466769</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="8"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="13">
-        <v>8.5747110228968915E-2</v>
-      </c>
-      <c r="F18" s="13">
-        <v>0.97283457442002075</v>
-      </c>
-      <c r="G18" s="13">
-        <v>1.6100976848454649</v>
-      </c>
-      <c r="H18" s="13">
-        <v>-1.434865707106556</v>
-      </c>
-      <c r="I18" s="13">
-        <v>3.5511952084813641</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B19" s="8"/>
-      <c r="C19" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="16">
-        <v>1.107927086691928</v>
-      </c>
-      <c r="F19" s="16">
-        <v>2.2392935739630482</v>
-      </c>
-      <c r="G19" s="16">
-        <v>3.4489072056985499</v>
-      </c>
-      <c r="H19" s="16">
-        <v>-0.3014084652093737</v>
-      </c>
-      <c r="I19" s="16">
-        <v>4.2586379772284957</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="10">
-        <v>-0.57500160441415382</v>
-      </c>
-      <c r="F20" s="10">
-        <v>7.0856264947809278E-2</v>
-      </c>
-      <c r="G20" s="10">
-        <v>0.5839172787192819</v>
-      </c>
-      <c r="H20" s="10">
-        <v>-2.2961648931440068</v>
-      </c>
-      <c r="I20" s="10">
-        <v>1.9675964549464291</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B21" s="8"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="13">
-        <v>-1.513577631638958</v>
-      </c>
-      <c r="F21" s="13">
-        <v>-0.5793486788248895</v>
-      </c>
-      <c r="G21" s="13">
-        <v>0.29328548615483241</v>
-      </c>
-      <c r="H21" s="13">
-        <v>-3.8748722123222712</v>
-      </c>
-      <c r="I21" s="13">
-        <v>2.9289957424536199</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B22" s="8"/>
-      <c r="C22" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="10">
-        <v>0.67830749542089697</v>
-      </c>
-      <c r="F22" s="10">
-        <v>1.416544355928528</v>
-      </c>
-      <c r="G22" s="10">
-        <v>2.336633695875677</v>
-      </c>
-      <c r="H22" s="10">
-        <v>-1.1493586420605291</v>
-      </c>
-      <c r="I22" s="10">
-        <v>3.3283992458839129</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="10">
-        <v>-1.380104506903618</v>
-      </c>
-      <c r="F23" s="10">
-        <v>-0.30325530584559113</v>
-      </c>
-      <c r="G23" s="10">
-        <v>9.8921050491331874E-2</v>
-      </c>
-      <c r="H23" s="10">
-        <v>-2.7073284933720609</v>
-      </c>
-      <c r="I23" s="10">
-        <v>0.94065057156341925</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="19">
+      <c r="D24" s="14">
         <v>-0.89894138088893349</v>
       </c>
-      <c r="F24" s="19">
+      <c r="E24" s="14">
         <v>1.0169782021168109E-2</v>
       </c>
-      <c r="G24" s="19">
+      <c r="F24" s="14">
         <v>1.4230457093529501</v>
       </c>
-      <c r="H24" s="19">
+      <c r="G24" s="14">
         <v>-2.2766767727946382</v>
       </c>
-      <c r="I24" s="19">
+      <c r="H24" s="14">
         <v>3.2521804684911491</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="8" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:8" ht="8" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B1:I4"/>
-    <mergeCell ref="B7:B15"/>
-    <mergeCell ref="B16:B24"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="A1:H4"/>
+    <mergeCell ref="A7:A15"/>
+    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B22:B24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
